--- a/biology/Botanique/Calligonum_arich/Calligonum_arich.xlsx
+++ b/biology/Botanique/Calligonum_arich/Calligonum_arich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calligonum arich est une espèce de plantes de la famille des Polygonaceae[1] endémique de la Tunisie et de la Libye.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calligonum arich est une espèce de plantes de la famille des Polygonaceae endémique de la Tunisie et de la Libye.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Tunisie, Calligonum arich se trouve dans les crêtes dunaires du Grand Erg oriental (en particulier dans la région d'El Borma) et se distingue des autres Calligonum par des fleurs rouges et une hauteur d'arbuste qui peut parfois dépasser les 10 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Tunisie, Calligonum arich se trouve dans les crêtes dunaires du Grand Erg oriental (en particulier dans la région d'El Borma) et se distingue des autres Calligonum par des fleurs rouges et une hauteur d'arbuste qui peut parfois dépasser les 10 m.
 </t>
         </is>
       </c>
